--- a/data/translation_file.xlsx
+++ b/data/translation_file.xlsx
@@ -378,7 +378,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>

--- a/data/translation_file.xlsx
+++ b/data/translation_file.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
     <t>occupancy schedule</t>
   </si>
   <si>
-    <t>C:\Users\walkerl\Documents\code\RC_BuildingSimulator\rc_simulator\auxiliary\occupancy_office.csv</t>
+    <t>C:\Users\LW_Simulation\Documents\RC_BuildingSimulator\rc_simulator\auxiliary\occupancy_single_res.csv</t>
   </si>
   <si>
-    <t>C:\Users\walkerl\Documents\code\RC_BuildingSimulator\rc_simulator\auxiliary\occupancy_single_res.csv</t>
+    <t>C:\Users\LW_Simulation\Documents\RC_BuildingSimulator\rc_simulator\auxiliary\occupancy_office.csv</t>
   </si>
 </sst>
 </file>
@@ -351,16 +351,16 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -368,20 +368,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
